--- a/documents/templates/bulk-upload/RoleAccess.xlsx
+++ b/documents/templates/bulk-upload/RoleAccess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRIOT\Angular Projects\WareHouse Management System\wms-server\documents\templates\bulk-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52100BC3-904B-407B-87D4-337B6A7AF8E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8F305-D58A-46C1-811D-B79CDA3B3B5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>QC Rejected Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock Transfer  </t>
-  </si>
-  <si>
     <t>Issue To Production</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Material Inward and Label Printing</t>
+  </si>
+  <si>
+    <t>Stock Transfer</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -500,27 +500,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
